--- a/FINALPROJECT/FinaleVersionCrowd2/New Findings Recommendations.xlsx
+++ b/FINALPROJECT/FinaleVersionCrowd2/New Findings Recommendations.xlsx
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
